--- a/e_log_excel.xlsx
+++ b/e_log_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Commissioning" sheetId="1" state="visible" r:id="rId2"/>
@@ -1595,9 +1595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1094040</xdr:colOff>
+      <xdr:colOff>1093680</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1611,7 +1611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1553400" y="10769760"/>
-          <a:ext cx="4426920" cy="3988440"/>
+          <a:ext cx="4426560" cy="3988080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,9 +1632,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>462960</xdr:colOff>
+      <xdr:colOff>462600</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1644,7 +1644,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6811920" y="11039760"/>
-          <a:ext cx="2698560" cy="2625120"/>
+          <a:ext cx="2698200" cy="2624760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1700,9 +1700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2909160</xdr:colOff>
+      <xdr:colOff>2908800</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1712,7 +1712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9265320" y="11032920"/>
-          <a:ext cx="2691360" cy="2617920"/>
+          <a:ext cx="2691000" cy="2617560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1768,9 +1768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>847080</xdr:colOff>
+      <xdr:colOff>846720</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1784,7 +1784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="434880" y="6494760"/>
-          <a:ext cx="5298480" cy="3877200"/>
+          <a:ext cx="5298120" cy="3876840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1805,9 +1805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1733040</xdr:colOff>
+      <xdr:colOff>1732680</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1821,7 +1821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5999040" y="6313320"/>
-          <a:ext cx="4781520" cy="4114800"/>
+          <a:ext cx="4781160" cy="4114440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,9 +1842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>6725880</xdr:colOff>
+      <xdr:colOff>6725520</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1858,7 +1858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11004840" y="6098760"/>
-          <a:ext cx="4768560" cy="4363920"/>
+          <a:ext cx="4768200" cy="4363560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1879,9 +1879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>686880</xdr:colOff>
+      <xdr:colOff>686520</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1895,7 +1895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16186680" y="5974560"/>
-          <a:ext cx="6579000" cy="6021000"/>
+          <a:ext cx="6578640" cy="6020640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,9 +1921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2497320</xdr:colOff>
+      <xdr:colOff>2496960</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1933,7 +1933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17640" y="4855320"/>
-          <a:ext cx="9420120" cy="1500120"/>
+          <a:ext cx="9427320" cy="1499760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1986,9 +1986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2968200</xdr:colOff>
+      <xdr:colOff>2967840</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2001,8 +2001,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1548000" y="6608520"/>
-          <a:ext cx="8360640" cy="1396440"/>
+          <a:off x="1549440" y="6608520"/>
+          <a:ext cx="8366400" cy="1396080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2680,7 +2680,7 @@
       <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="50.83"/>
@@ -3774,8 +3774,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E56" activeCellId="0" sqref="E56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.7" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4040,7 +4040,7 @@
         <v>0.543055555555555</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>525</v>
+        <v>425</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0" t="s">
@@ -6376,11 +6376,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">

--- a/e_log_excel.xlsx
+++ b/e_log_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Commissioning" sheetId="1" state="visible" r:id="rId2"/>
@@ -1188,7 +1188,7 @@
     <numFmt numFmtId="169" formatCode="h:mm"/>
     <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd\ hh:mm:ss.000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1218,6 +1218,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFC9211E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1372,7 +1378,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1412,56 +1418,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1480,11 +1458,39 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1500,7 +1506,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1589,38 +1595,142 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>341640</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:colOff>173160</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1093680</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:colOff>924840</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="Image 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1553400" y="10769760"/>
-          <a:ext cx="4426560" cy="3988080"/>
+          <a:off x="1384920" y="10384200"/>
+          <a:ext cx="4426200" cy="3987720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip r:embed="rId1"/>
+          <a:stretch/>
+        </a:blipFill>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="c9211e"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="c9211e"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>The point to note is that the</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="c9211e"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="c9211e"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Actual Images on the right</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="c9211e"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="c9211e"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Are taken downstream while this</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="c9211e"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="c9211e"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Reconstruction by shumpei </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="c9211e"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="c9211e"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>is done upstream</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="c9211e"/>
+            </a:solidFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
@@ -1632,9 +1742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>462600</xdr:colOff>
+      <xdr:colOff>462240</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1644,7 +1754,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6811920" y="11039760"/>
-          <a:ext cx="2698200" cy="2624760"/>
+          <a:ext cx="2697840" cy="2624400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1700,9 +1810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2908800</xdr:colOff>
+      <xdr:colOff>2908440</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1712,7 +1822,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9265320" y="11032920"/>
-          <a:ext cx="2691000" cy="2617560"/>
+          <a:ext cx="2690640" cy="2617200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1768,9 +1878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>846720</xdr:colOff>
+      <xdr:colOff>846360</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1784,7 +1894,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="434880" y="6494760"/>
-          <a:ext cx="5298120" cy="3876840"/>
+          <a:ext cx="5297760" cy="3876480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1805,9 +1915,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1732680</xdr:colOff>
+      <xdr:colOff>1732320</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1821,7 +1931,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5999040" y="6313320"/>
-          <a:ext cx="4781160" cy="4114440"/>
+          <a:ext cx="4780800" cy="4114080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,9 +1952,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>6725520</xdr:colOff>
+      <xdr:colOff>6725160</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1858,7 +1968,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11004840" y="6098760"/>
-          <a:ext cx="4768200" cy="4363560"/>
+          <a:ext cx="4767840" cy="4363200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1879,9 +1989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>686520</xdr:colOff>
+      <xdr:colOff>686160</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1895,7 +2005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16186680" y="5974560"/>
-          <a:ext cx="6578640" cy="6020640"/>
+          <a:ext cx="6578280" cy="6020280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1921,9 +2031,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2496960</xdr:colOff>
+      <xdr:colOff>2496600</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1933,7 +2043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17640" y="4855320"/>
-          <a:ext cx="9427320" cy="1499760"/>
+          <a:ext cx="9434880" cy="1499400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1986,9 +2096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2967840</xdr:colOff>
+      <xdr:colOff>2967480</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2001,8 +2111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1549440" y="6608520"/>
-          <a:ext cx="8366400" cy="1396080"/>
+          <a:off x="1550520" y="6608520"/>
+          <a:ext cx="8372880" cy="1395720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2024,8 +2134,8 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I26" activeCellId="0" sqref="I26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2676,11 +2786,11 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="50.83"/>
@@ -3774,7 +3884,7 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -6376,11 +6486,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">

--- a/e_log_excel.xlsx
+++ b/e_log_excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Commissioning" sheetId="1" state="visible" r:id="rId2"/>
@@ -451,7 +451,7 @@
     <t xml:space="preserve">Calibration of New CATS1 </t>
   </si>
   <si>
-    <t xml:space="preserve">Pulser run</t>
+    <t xml:space="preserve">Pulser run… CATS1 replaced</t>
   </si>
   <si>
     <t xml:space="preserve">367-369</t>
@@ -1223,7 +1223,7 @@
       <sz val="18"/>
       <color rgb="FFC9211E"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1601,46 +1601,58 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>924840</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:colOff>924480</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="0" name="Image 1"/>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1384920" y="10384200"/>
-          <a:ext cx="4426200" cy="3987720"/>
+          <a:ext cx="4425840" cy="3987360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:blipFill rotWithShape="0">
           <a:blip r:embed="rId1"/>
+          <a:srcRect/>
           <a:stretch/>
         </a:blipFill>
         <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
       <xdr:txBody>
         <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t" anchorCtr="1">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="c9211e"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -1651,14 +1663,15 @@
             <a:t>The point to note is that the</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="c9211e"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -1669,14 +1682,15 @@
             <a:t>Actual Images on the right</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="c9211e"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -1687,14 +1701,15 @@
             <a:t>Are taken downstream while this</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="c9211e"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -1705,14 +1720,15 @@
             <a:t>Reconstruction by shumpei </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="c9211e"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:r>
             <a:rPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
               <a:solidFill>
@@ -1723,9 +1739,6 @@
             <a:t>is done upstream</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1800" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="c9211e"/>
-            </a:solidFill>
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -1742,9 +1755,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>462240</xdr:colOff>
+      <xdr:colOff>461880</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1754,7 +1767,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6811920" y="11039760"/>
-          <a:ext cx="2697840" cy="2624400"/>
+          <a:ext cx="2697480" cy="2624040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,9 +1823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2908440</xdr:colOff>
+      <xdr:colOff>2908080</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>155160</xdr:rowOff>
+      <xdr:rowOff>154800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1822,7 +1835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9265320" y="11032920"/>
-          <a:ext cx="2690640" cy="2617200"/>
+          <a:ext cx="2690280" cy="2616840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1878,9 +1891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>846360</xdr:colOff>
+      <xdr:colOff>846000</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1894,7 +1907,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="434880" y="6494760"/>
-          <a:ext cx="5297760" cy="3876480"/>
+          <a:ext cx="5297400" cy="3876120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1915,9 +1928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1732320</xdr:colOff>
+      <xdr:colOff>1731960</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1931,7 +1944,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5999040" y="6313320"/>
-          <a:ext cx="4780800" cy="4114080"/>
+          <a:ext cx="4780440" cy="4113720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1952,9 +1965,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>6725160</xdr:colOff>
+      <xdr:colOff>6724800</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1968,7 +1981,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11004840" y="6098760"/>
-          <a:ext cx="4767840" cy="4363200"/>
+          <a:ext cx="4767480" cy="4362840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1989,9 +2002,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>686160</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2005,7 +2018,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16186680" y="5974560"/>
-          <a:ext cx="6578280" cy="6020280"/>
+          <a:ext cx="6577920" cy="6019920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2031,9 +2044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2496600</xdr:colOff>
+      <xdr:colOff>2496240</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2043,7 +2056,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17640" y="4855320"/>
-          <a:ext cx="9434880" cy="1499400"/>
+          <a:ext cx="9438120" cy="1499040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2096,9 +2109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2967480</xdr:colOff>
+      <xdr:colOff>2967120</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2111,8 +2124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1550520" y="6608520"/>
-          <a:ext cx="8372880" cy="1395720"/>
+          <a:off x="1551240" y="6608520"/>
+          <a:ext cx="8375400" cy="1395360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2134,8 +2147,8 @@
   </sheetPr>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2786,11 +2799,11 @@
   </sheetPr>
   <dimension ref="A1:T1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="50.83"/>
@@ -6490,7 +6503,7 @@
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
